--- a/Calculations/STM32 oscillator.xlsx
+++ b/Calculations/STM32 oscillator.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\HEVEL\MPPT_controller\Calculations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="20940" windowHeight="7305"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>gmcrit=</t>
   </si>
@@ -88,13 +93,19 @@
   </si>
   <si>
     <t>//oscillator Load capacitance (pdf)</t>
+  </si>
+  <si>
+    <t>RExt = 1 / (2 π F CL2),</t>
+  </si>
+  <si>
+    <t>Rext=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +157,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -192,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -433,24 +454,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -465,7 +486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -479,7 +500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -493,7 +514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -507,7 +528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -521,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -536,12 +557,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -556,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>B14*1000</f>
         <v>0.53409058815999999</v>
@@ -565,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -576,7 +597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -585,6 +606,53 @@
         <v>18.723415506068147</v>
       </c>
       <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>4*(B6+B22)*(2*3.14*B7*10^6)^2*(B3*10^(-12)+B5*10^(-12))^2</f>
+        <v>1.6022717644799997E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B24*1000</f>
+        <v>1.6022717644799997</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <f>B17/B25</f>
+        <v>6.2411385020227161</v>
+      </c>
+      <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -597,24 +665,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
